--- a/src/main/resources/xls_template/wzspsxjmb.xlsx
+++ b/src/main/resources/xls_template/wzspsxjmb.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\JavaProjects\anxian-gateway-admin\src\main\resources\xls_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wujianlong\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15975" yWindow="405" windowWidth="3390" windowHeight="10350"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,14 +49,59 @@
         </r>
       </text>
     </comment>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>wujianlong:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+填‘是’或‘否’
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>商品编码</t>
+  </si>
+  <si>
+    <t>是否所有门店</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>门店ID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>00801A</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -121,7 +166,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -129,50 +174,24 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -478,69 +497,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A111"/>
+  <dimension ref="A1:C111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="14.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.25" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" ht="14.25">
-      <c r="A2" s="3">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="14.25">
+      <c r="A2" s="6">
         <v>5306102</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" ht="14.25">
-      <c r="A3" s="3">
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="1:3" ht="14.25">
+      <c r="A3" s="6">
         <v>5306133</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4"/>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:3">
       <c r="A5"/>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:3">
       <c r="A6"/>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:3">
       <c r="A7"/>
     </row>
-    <row r="8" spans="1:1" ht="14.25" customHeight="1">
+    <row r="8" spans="1:3" ht="14.25" customHeight="1">
       <c r="A8"/>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:3">
       <c r="A9"/>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:3">
       <c r="A10"/>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:3">
       <c r="A11"/>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:3">
       <c r="A12"/>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:3">
       <c r="A13"/>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:3">
       <c r="A14"/>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:3">
       <c r="A15"/>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:3">
       <c r="A16"/>
     </row>
     <row r="17" spans="1:1">
@@ -831,8 +868,8 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/src/main/resources/xls_template/wzspsxjmb.xlsx
+++ b/src/main/resources/xls_template/wzspsxjmb.xlsx
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>商品编码</t>
   </si>
@@ -89,10 +89,6 @@
   </si>
   <si>
     <t>门店ID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -179,7 +175,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -191,7 +187,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -497,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C111"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -523,347 +518,14 @@
     </row>
     <row r="2" spans="1:3" ht="14.25">
       <c r="A2" s="6">
-        <v>5306102</v>
+        <v>1003884</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4"/>
-    </row>
-    <row r="3" spans="1:3" ht="14.25">
-      <c r="A3" s="6">
-        <v>5306133</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7"/>
-    </row>
-    <row r="8" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A8"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16"/>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17"/>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18"/>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19"/>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20"/>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21"/>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22"/>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23"/>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24"/>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25"/>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26"/>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27"/>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28"/>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29"/>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30"/>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31"/>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32"/>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33"/>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34"/>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35"/>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36"/>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37"/>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38"/>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39"/>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40"/>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41"/>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42"/>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43"/>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44"/>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45"/>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46"/>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47"/>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48"/>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49"/>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50"/>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51"/>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52"/>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53"/>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54"/>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55"/>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56"/>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57"/>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58"/>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59"/>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60"/>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61"/>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62"/>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63"/>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64"/>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65"/>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66"/>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67"/>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68"/>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69"/>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70"/>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71"/>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72"/>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73"/>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74"/>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75"/>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76"/>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77"/>
-    </row>
-    <row r="78" spans="1:1">
-      <c r="A78"/>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79"/>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80"/>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81"/>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82"/>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83"/>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84"/>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85"/>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86"/>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87"/>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88"/>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89"/>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90"/>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91"/>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92"/>
-    </row>
-    <row r="93" spans="1:1">
-      <c r="A93"/>
-    </row>
-    <row r="94" spans="1:1">
-      <c r="A94"/>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95"/>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96"/>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97"/>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98"/>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99"/>
-    </row>
-    <row r="100" spans="1:1">
-      <c r="A100"/>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101"/>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102"/>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103"/>
-    </row>
-    <row r="104" spans="1:1">
-      <c r="A104"/>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105"/>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106"/>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107"/>
-    </row>
-    <row r="108" spans="1:1">
-      <c r="A108"/>
-    </row>
-    <row r="109" spans="1:1">
-      <c r="A109"/>
-    </row>
-    <row r="110" spans="1:1">
-      <c r="A110"/>
-    </row>
-    <row r="111" spans="1:1">
-      <c r="A111"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -878,7 +540,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="D179" sqref="D179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
